--- a/TemperatureData/GilletPond/0301.xlsx
+++ b/TemperatureData/GilletPond/0301.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/GilletPond/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\GilletPond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9F71C2B2-EAE1-4C68-9562-6739CCA5A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF5E4E-DCB9-45A9-84A5-0CD44218F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0301" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Plot Title: 21422122</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422122)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger data for Gillet Pond</t>
   </si>
   <si>
@@ -76,11 +73,14 @@
   <si>
     <t>#Water had also dried up on previous visit (logger was moved.</t>
   </si>
+  <si>
+    <t>#Data after retrieval date/time was deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,9 +620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,7 +660,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -766,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -908,17 +908,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6220" workbookViewId="0">
+      <selection activeCell="A6234" sqref="A6234:XFD6257"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -88193,377 +88195,58 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="6234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6234">
-        <v>6232</v>
-      </c>
-      <c r="B6234" s="1">
-        <v>44792.40625</v>
-      </c>
-      <c r="C6234">
-        <v>86.096999999999994</v>
-      </c>
-      <c r="D6234">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6235">
-        <v>6233</v>
-      </c>
-      <c r="B6235" s="1">
-        <v>44792.416666666664</v>
-      </c>
-      <c r="C6235">
-        <v>81.974999999999994</v>
-      </c>
-      <c r="D6235">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6236">
-        <v>6234</v>
-      </c>
-      <c r="B6236" s="1">
-        <v>44792.427083333336</v>
-      </c>
-      <c r="C6236">
-        <v>81.441999999999993</v>
-      </c>
-      <c r="D6236">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6237">
-        <v>6235</v>
-      </c>
-      <c r="B6237" s="1">
-        <v>44792.4375</v>
-      </c>
-      <c r="C6237">
-        <v>84.114999999999995</v>
-      </c>
-      <c r="D6237">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6238">
-        <v>6236</v>
-      </c>
-      <c r="B6238" s="1">
-        <v>44792.447916666664</v>
-      </c>
-      <c r="C6238">
-        <v>82.864000000000004</v>
-      </c>
-      <c r="D6238">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6239">
-        <v>6237</v>
-      </c>
-      <c r="B6239" s="1">
-        <v>44792.458333333336</v>
-      </c>
-      <c r="C6239">
-        <v>84.834000000000003</v>
-      </c>
-      <c r="D6239">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6240">
-        <v>6238</v>
-      </c>
-      <c r="B6240" s="1">
-        <v>44792.46875</v>
-      </c>
-      <c r="C6240">
-        <v>83.757000000000005</v>
-      </c>
-      <c r="D6240">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6241">
-        <v>6239</v>
-      </c>
-      <c r="B6241" s="1">
-        <v>44792.479166666664</v>
-      </c>
-      <c r="C6241">
-        <v>83.043000000000006</v>
-      </c>
-      <c r="D6241">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6242">
-        <v>6240</v>
-      </c>
-      <c r="B6242" s="1">
-        <v>44792.489583333336</v>
-      </c>
-      <c r="C6242">
-        <v>82.686000000000007</v>
-      </c>
-      <c r="D6242">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6243">
-        <v>6241</v>
-      </c>
-      <c r="B6243" s="1">
-        <v>44792.5</v>
-      </c>
-      <c r="C6243">
-        <v>85.013999999999996</v>
-      </c>
-      <c r="D6243">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6244">
-        <v>6242</v>
-      </c>
-      <c r="B6244" s="1">
-        <v>44792.510416666664</v>
-      </c>
-      <c r="C6244">
-        <v>85.734999999999999</v>
-      </c>
-      <c r="D6244">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6245">
-        <v>6243</v>
-      </c>
-      <c r="B6245" s="1">
-        <v>44792.520833333336</v>
-      </c>
-      <c r="C6245">
-        <v>89.938000000000002</v>
-      </c>
-      <c r="D6245">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6246">
-        <v>6244</v>
-      </c>
-      <c r="B6246" s="1">
-        <v>44792.53125</v>
-      </c>
-      <c r="C6246">
-        <v>89.2</v>
-      </c>
-      <c r="D6246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6247">
-        <v>6245</v>
-      </c>
-      <c r="B6247" s="1">
-        <v>44792.541666666664</v>
-      </c>
-      <c r="C6247">
-        <v>86.096999999999994</v>
-      </c>
-      <c r="D6247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6248">
-        <v>6246</v>
-      </c>
-      <c r="B6248" s="1">
-        <v>44792.552083333336</v>
-      </c>
-      <c r="C6248">
-        <v>84.834000000000003</v>
-      </c>
-      <c r="D6248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6249">
-        <v>6247</v>
-      </c>
-      <c r="B6249" s="1">
-        <v>44792.5625</v>
-      </c>
-      <c r="C6249">
-        <v>84.295000000000002</v>
-      </c>
-      <c r="D6249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6250">
-        <v>6248</v>
-      </c>
-      <c r="B6250" s="1">
-        <v>44792.572916666664</v>
-      </c>
-      <c r="C6250">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D6250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6251">
-        <v>6249</v>
-      </c>
-      <c r="B6251" s="1">
-        <v>44792.583333333336</v>
-      </c>
-      <c r="C6251">
-        <v>76.006</v>
-      </c>
-      <c r="D6251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6252">
-        <v>6250</v>
-      </c>
-      <c r="B6252" s="1">
-        <v>44792.59375</v>
-      </c>
-      <c r="C6252">
-        <v>74.790999999999997</v>
-      </c>
-      <c r="D6252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6253">
-        <v>6251</v>
-      </c>
-      <c r="B6253" s="1">
-        <v>44792.598703703705</v>
-      </c>
-      <c r="E6253" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6254">
-        <v>6252</v>
-      </c>
-      <c r="B6254" s="1">
-        <v>44792.598807870374</v>
-      </c>
-      <c r="F6254" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6255">
-        <v>6253</v>
-      </c>
-      <c r="B6255" s="1">
-        <v>44792.598877314813</v>
-      </c>
-      <c r="E6255" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6256">
-        <v>6254</v>
-      </c>
-      <c r="B6256" s="1">
-        <v>44792.59888888889</v>
-      </c>
-      <c r="G6256" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6257">
-        <v>6255</v>
-      </c>
-      <c r="B6257" s="1">
-        <v>44792.599456018521</v>
-      </c>
-      <c r="H6257" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6257" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -88800,15 +88483,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -88819,14 +88493,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{699733BB-E0DC-425A-9E1D-8F5A1BB90E8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{699733BB-E0DC-425A-9E1D-8F5A1BB90E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7279F776-9229-4F8E-A6AE-351606EA42BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99777CC6-A4E9-4BF7-9EB5-CC9BCBC87B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99777CC6-A4E9-4BF7-9EB5-CC9BCBC87B30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7279F776-9229-4F8E-A6AE-351606EA42BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>